--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -13,13 +13,16 @@
     <sheet name="Прибуток" sheetId="7" r:id="rId4"/>
     <sheet name="ЄСВ" sheetId="8" r:id="rId5"/>
     <sheet name="Пов’язані" sheetId="9" r:id="rId6"/>
+    <sheet name="ПДВ" sheetId="14" r:id="rId7"/>
+    <sheet name="ПДВ РІК" sheetId="15" r:id="rId8"/>
+    <sheet name="Повідомлення" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="227">
   <si>
     <t>ДПІ</t>
   </si>
@@ -542,6 +545,171 @@
   </si>
   <si>
     <t>2_Пасиви Б1495</t>
+  </si>
+  <si>
+    <t>[PERIOD_TYPE1]</t>
+  </si>
+  <si>
+    <t>[TYP_DECL]</t>
+  </si>
+  <si>
+    <t>[R11A]</t>
+  </si>
+  <si>
+    <t>[R11B]</t>
+  </si>
+  <si>
+    <t>[R12A]</t>
+  </si>
+  <si>
+    <t>[R12B]</t>
+  </si>
+  <si>
+    <t>[R20A]</t>
+  </si>
+  <si>
+    <t>[R30A]</t>
+  </si>
+  <si>
+    <t>[R90B]</t>
+  </si>
+  <si>
+    <t>[R101A]</t>
+  </si>
+  <si>
+    <t>[R101B]</t>
+  </si>
+  <si>
+    <t>[R102A]</t>
+  </si>
+  <si>
+    <t>[R103A]</t>
+  </si>
+  <si>
+    <t>[R111B]</t>
+  </si>
+  <si>
+    <t>[R112B]</t>
+  </si>
+  <si>
+    <t>[R170B]</t>
+  </si>
+  <si>
+    <t>[R180B]</t>
+  </si>
+  <si>
+    <t>[R181B]</t>
+  </si>
+  <si>
+    <t>[R190B]</t>
+  </si>
+  <si>
+    <t>[R210B]</t>
+  </si>
+  <si>
+    <t>[NAVANT]</t>
+  </si>
+  <si>
+    <t>Тип періоду</t>
+  </si>
+  <si>
+    <t>Звітний період або період, який уточнюється</t>
+  </si>
+  <si>
+    <t>Тип декларації</t>
+  </si>
+  <si>
+    <t>Р1.1А</t>
+  </si>
+  <si>
+    <t>Р1.1Б</t>
+  </si>
+  <si>
+    <t>Р1.2А</t>
+  </si>
+  <si>
+    <t>Р1.2Б</t>
+  </si>
+  <si>
+    <t>Р2А</t>
+  </si>
+  <si>
+    <t>Р3А</t>
+  </si>
+  <si>
+    <t>Р9Б</t>
+  </si>
+  <si>
+    <t>Р10.1А</t>
+  </si>
+  <si>
+    <t>Р10.1Б</t>
+  </si>
+  <si>
+    <t>Р10.2А</t>
+  </si>
+  <si>
+    <t>Р10.3А</t>
+  </si>
+  <si>
+    <t>Р11.1Б</t>
+  </si>
+  <si>
+    <t>Р11.2Б</t>
+  </si>
+  <si>
+    <t>Р17Б</t>
+  </si>
+  <si>
+    <t>Р18Б</t>
+  </si>
+  <si>
+    <t>Р18.1Б</t>
+  </si>
+  <si>
+    <t>Р19Б</t>
+  </si>
+  <si>
+    <t>Р21Б</t>
+  </si>
+  <si>
+    <t>Навантаження Р18Б/ (Р1.1А+Р1.2Б) %</t>
+  </si>
+  <si>
+    <t>Дані по деклараціях ПДВ по місяцях, тис.грн.</t>
+  </si>
+  <si>
+    <t>К-сть декларацій</t>
+  </si>
+  <si>
+    <t>Всього зоб. Р9Б</t>
+  </si>
+  <si>
+    <t>Кредит 20% Р10.1А</t>
+  </si>
+  <si>
+    <t>Дані по деклараціях ПДВ по роках, тис.грн.</t>
+  </si>
+  <si>
+    <t>[R18B]</t>
+  </si>
+  <si>
+    <t>[KIL]</t>
+  </si>
+  <si>
+    <t>К-сть повідомлень</t>
+  </si>
+  <si>
+    <t>Прийнято найманих</t>
+  </si>
+  <si>
+    <t>Інформація про прийняття найманих працівників</t>
+  </si>
+  <si>
+    <t>[K_ST_POVID]</t>
+  </si>
+  <si>
+    <t>[K_ST_PRAZ]</t>
   </si>
 </sst>
 </file>
@@ -552,7 +720,7 @@
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,8 +770,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +930,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1113,15 +1316,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1130,15 +1333,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1163,15 +1366,15 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1180,29 +1383,29 @@
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -1211,15 +1414,15 @@
       <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="17" t="s">
@@ -2049,4 +2252,323 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:Z4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z1" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="U3" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="V3" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="W3" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="X3" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y3" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z3" s="44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z4" s="47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="1000" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,13 +16,15 @@
     <sheet name="ПДВ" sheetId="14" r:id="rId7"/>
     <sheet name="ПДВ РІК" sheetId="15" r:id="rId8"/>
     <sheet name="Повідомлення" sheetId="16" r:id="rId9"/>
+    <sheet name="Реєстр ПДВ" sheetId="17" r:id="rId10"/>
+    <sheet name="Засновники" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="252">
   <si>
     <t>ДПІ</t>
   </si>
@@ -710,6 +712,88 @@
   </si>
   <si>
     <t>[K_ST_PRAZ]</t>
+  </si>
+  <si>
+    <t>Дані з реєстру ПДВ</t>
+  </si>
+  <si>
+    <t>[C_STI_MAIN]</t>
+  </si>
+  <si>
+    <t>[KOD_PDV]</t>
+  </si>
+  <si>
+    <t>[DAT_ZAYAV]</t>
+  </si>
+  <si>
+    <t>[DAT_REESTR]</t>
+  </si>
+  <si>
+    <t>[DAT_SVD]</t>
+  </si>
+  <si>
+    <t>[NOM_SVD]</t>
+  </si>
+  <si>
+    <t>[DAT_ANUL]</t>
+  </si>
+  <si>
+    <t>[IS_ACTUAL]</t>
+  </si>
+  <si>
+    <t>КОД ПДВ</t>
+  </si>
+  <si>
+    <t>Актуальність</t>
+  </si>
+  <si>
+    <t>Дата 
+заяви</t>
+  </si>
+  <si>
+    <t>Дата реєстрації 
+платником ПДВ</t>
+  </si>
+  <si>
+    <t>Дата 
+свідоцтва</t>
+  </si>
+  <si>
+    <t>Номер 
+свідоцтва</t>
+  </si>
+  <si>
+    <t>Дата 
+анулювання</t>
+  </si>
+  <si>
+    <t>Засновники зі статутним фондом &gt; 10%</t>
+  </si>
+  <si>
+    <t>[KOD_FOUND]</t>
+  </si>
+  <si>
+    <t>[NAME]</t>
+  </si>
+  <si>
+    <t>[SUM_INFUND]</t>
+  </si>
+  <si>
+    <t>[VIDS]</t>
+  </si>
+  <si>
+    <t>Назва засновника</t>
+  </si>
+  <si>
+    <t>Відсоток</t>
+  </si>
+  <si>
+    <t>Код 
+засновника</t>
+  </si>
+  <si>
+    <t>Статутний 
+фонд</t>
   </si>
 </sst>
 </file>
@@ -1477,6 +1561,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Головна" sheetId="5" r:id="rId1"/>
-    <sheet name="Контрагенти" sheetId="13" r:id="rId2"/>
-    <sheet name="Баланс" sheetId="6" r:id="rId3"/>
-    <sheet name="Прибуток" sheetId="7" r:id="rId4"/>
-    <sheet name="ЄСВ" sheetId="8" r:id="rId5"/>
-    <sheet name="Пов’язані" sheetId="9" r:id="rId6"/>
+    <sheet name="Пов’язані" sheetId="9" r:id="rId2"/>
+    <sheet name="Контрагенти" sheetId="13" r:id="rId3"/>
+    <sheet name="Баланс" sheetId="6" r:id="rId4"/>
+    <sheet name="Прибуток" sheetId="7" r:id="rId5"/>
+    <sheet name="ЄСВ" sheetId="8" r:id="rId6"/>
     <sheet name="ПДВ" sheetId="14" r:id="rId7"/>
     <sheet name="ПДВ РІК" sheetId="15" r:id="rId8"/>
     <sheet name="Повідомлення" sheetId="16" r:id="rId9"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="274">
   <si>
     <t>ДПІ</t>
   </si>
@@ -188,120 +188,9 @@
     <t>7_Баланс Б1900</t>
   </si>
   <si>
-    <t>[C_STI]</t>
-  </si>
-  <si>
-    <t>[PERIOD_YEAR]</t>
-  </si>
-  <si>
-    <t>[PERIOD_MONTH]</t>
-  </si>
-  <si>
-    <t>[D_GET]</t>
-  </si>
-  <si>
-    <t>[N_REG]</t>
-  </si>
-  <si>
-    <t>[A1300]</t>
-  </si>
-  <si>
-    <t>[B1300]</t>
-  </si>
-  <si>
-    <t>[A1495]</t>
-  </si>
-  <si>
-    <t>[B1495]</t>
-  </si>
-  <si>
-    <t>[A1595]</t>
-  </si>
-  <si>
-    <t>[B1595]</t>
-  </si>
-  <si>
-    <t>[A1695]</t>
-  </si>
-  <si>
-    <t>[B1695]</t>
-  </si>
-  <si>
-    <t>[A1700]</t>
-  </si>
-  <si>
-    <t>[B1700]</t>
-  </si>
-  <si>
-    <t>[A1800]</t>
-  </si>
-  <si>
-    <t>[B1800]</t>
-  </si>
-  <si>
-    <t>[A1900]</t>
-  </si>
-  <si>
-    <t>[B1900]</t>
-  </si>
-  <si>
     <t>Баланс</t>
   </si>
   <si>
-    <t>[SH.N]</t>
-  </si>
-  <si>
-    <t>[SH.OLD_STAN]</t>
-  </si>
-  <si>
-    <t>[SH.NEW_STAN]</t>
-  </si>
-  <si>
-    <t>[SH.D_CHANGE]</t>
-  </si>
-  <si>
-    <t>[SH.IS_ACTUAL]</t>
-  </si>
-  <si>
-    <t>[T1.TIN]</t>
-  </si>
-  <si>
-    <t>[T1.NAME]</t>
-  </si>
-  <si>
-    <t>[T2.N]</t>
-  </si>
-  <si>
-    <t>[T2.STI]</t>
-  </si>
-  <si>
-    <t>[T2.NAME]</t>
-  </si>
-  <si>
-    <t>[T2.VIDS]</t>
-  </si>
-  <si>
-    <t>[T2.OBS]</t>
-  </si>
-  <si>
-    <t>[T2.PDV]</t>
-  </si>
-  <si>
-    <t>[T2.NOM]</t>
-  </si>
-  <si>
-    <t>[T2.CP_TIN]</t>
-  </si>
-  <si>
-    <t>[TIN]</t>
-  </si>
-  <si>
-    <t>[TYP]</t>
-  </si>
-  <si>
-    <t>[P01]</t>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -324,15 +213,6 @@
   </si>
   <si>
     <t>ЄСВ</t>
-  </si>
-  <si>
-    <t>[R1]</t>
-  </si>
-  <si>
-    <t>[SHTAT]</t>
-  </si>
-  <si>
-    <t>[SER_ZP]</t>
   </si>
   <si>
     <t>Фонд
@@ -340,9 +220,6 @@
 праці, грн</t>
   </si>
   <si>
-    <t>[PERIOD]</t>
-  </si>
-  <si>
     <t>Середня
 заробітна
 плата</t>
@@ -369,126 +246,15 @@
     <t>ЄДРПОУ</t>
   </si>
   <si>
-    <t>[T2.PIN]</t>
-  </si>
-  <si>
-    <t>[T2.TYP]</t>
-  </si>
-  <si>
-    <t>[T2.POST_NAME]</t>
-  </si>
-  <si>
-    <t>[T2.TIN]</t>
-  </si>
-  <si>
-    <t>[T2.UR_NAME]</t>
-  </si>
-  <si>
-    <t>[T2.C_STAN]</t>
-  </si>
-  <si>
-    <t>[T3.PIN]</t>
-  </si>
-  <si>
-    <t>[T3.NAME]</t>
-  </si>
-  <si>
-    <t>[T3.TYP]</t>
-  </si>
-  <si>
-    <t>[T3.POST_NAME]</t>
-  </si>
-  <si>
-    <t>[T3.TIN]</t>
-  </si>
-  <si>
-    <t>[T3.UR_NAME]</t>
-  </si>
-  <si>
-    <t>[T3.C_STAN]</t>
-  </si>
-  <si>
-    <t>[T1.C_STAN]</t>
-  </si>
-  <si>
-    <t>[T1.C_DISTR]</t>
-  </si>
-  <si>
     <t>Пов’язані серед ФОП</t>
   </si>
   <si>
-    <t>[T3.C_DISTR]</t>
-  </si>
-  <si>
-    <t>[T2.C_DISTR]</t>
-  </si>
-  <si>
-    <t>[T1.BLANK]</t>
-  </si>
-  <si>
-    <t>[T5.C_DISTR]</t>
-  </si>
-  <si>
-    <t>[T5.TIN]</t>
-  </si>
-  <si>
-    <t>[T5.NAME]</t>
-  </si>
-  <si>
-    <t>[T5.C_STAN]</t>
-  </si>
-  <si>
-    <t>[T5.POST_NAME]</t>
-  </si>
-  <si>
-    <t>[T5.TYP]</t>
-  </si>
-  <si>
-    <t>[T5.PIN]</t>
-  </si>
-  <si>
     <t>Пов’язані серед засновників  - юр.осіб</t>
   </si>
   <si>
     <t>Пов’язані серед засновників - фіз.осіб</t>
   </si>
   <si>
-    <t>[T4.C_DISTR]</t>
-  </si>
-  <si>
-    <t>[T4.TIN]</t>
-  </si>
-  <si>
-    <t>[T4.UR_NAME]</t>
-  </si>
-  <si>
-    <t>[T4.C_STAN]</t>
-  </si>
-  <si>
-    <t>[T4.POST_NAME]</t>
-  </si>
-  <si>
-    <t>[T4.TYP]</t>
-  </si>
-  <si>
-    <t>[T4.PIN]</t>
-  </si>
-  <si>
-    <t>[T4.NAME]</t>
-  </si>
-  <si>
-    <t>[P03]</t>
-  </si>
-  <si>
-    <t>[P04]</t>
-  </si>
-  <si>
-    <t>[P06]</t>
-  </si>
-  <si>
-    <t>[VIDDACHA]</t>
-  </si>
-  <si>
     <t>Дохід (р01)</t>
   </si>
   <si>
@@ -510,24 +276,6 @@
     <t>{T2.PDV_SUM}</t>
   </si>
   <si>
-    <t>[T1.N]</t>
-  </si>
-  <si>
-    <t>[T1.STI]</t>
-  </si>
-  <si>
-    <t>[T1.VIDS]</t>
-  </si>
-  <si>
-    <t>[T1.OBS]</t>
-  </si>
-  <si>
-    <t>[T1.PDV]</t>
-  </si>
-  <si>
-    <t>[T1.NOM]</t>
-  </si>
-  <si>
     <t>{T1.OBS_SUM}</t>
   </si>
   <si>
@@ -549,69 +297,6 @@
     <t>2_Пасиви Б1495</t>
   </si>
   <si>
-    <t>[PERIOD_TYPE1]</t>
-  </si>
-  <si>
-    <t>[TYP_DECL]</t>
-  </si>
-  <si>
-    <t>[R11A]</t>
-  </si>
-  <si>
-    <t>[R11B]</t>
-  </si>
-  <si>
-    <t>[R12A]</t>
-  </si>
-  <si>
-    <t>[R12B]</t>
-  </si>
-  <si>
-    <t>[R20A]</t>
-  </si>
-  <si>
-    <t>[R30A]</t>
-  </si>
-  <si>
-    <t>[R90B]</t>
-  </si>
-  <si>
-    <t>[R101A]</t>
-  </si>
-  <si>
-    <t>[R101B]</t>
-  </si>
-  <si>
-    <t>[R102A]</t>
-  </si>
-  <si>
-    <t>[R103A]</t>
-  </si>
-  <si>
-    <t>[R111B]</t>
-  </si>
-  <si>
-    <t>[R112B]</t>
-  </si>
-  <si>
-    <t>[R170B]</t>
-  </si>
-  <si>
-    <t>[R180B]</t>
-  </si>
-  <si>
-    <t>[R181B]</t>
-  </si>
-  <si>
-    <t>[R190B]</t>
-  </si>
-  <si>
-    <t>[R210B]</t>
-  </si>
-  <si>
-    <t>[NAVANT]</t>
-  </si>
-  <si>
     <t>Тип періоду</t>
   </si>
   <si>
@@ -693,12 +378,6 @@
     <t>Дані по деклараціях ПДВ по роках, тис.грн.</t>
   </si>
   <si>
-    <t>[R18B]</t>
-  </si>
-  <si>
-    <t>[KIL]</t>
-  </si>
-  <si>
     <t>К-сть повідомлень</t>
   </si>
   <si>
@@ -708,37 +387,7 @@
     <t>Інформація про прийняття найманих працівників</t>
   </si>
   <si>
-    <t>[K_ST_POVID]</t>
-  </si>
-  <si>
-    <t>[K_ST_PRAZ]</t>
-  </si>
-  <si>
     <t>Дані з реєстру ПДВ</t>
-  </si>
-  <si>
-    <t>[C_STI_MAIN]</t>
-  </si>
-  <si>
-    <t>[KOD_PDV]</t>
-  </si>
-  <si>
-    <t>[DAT_ZAYAV]</t>
-  </si>
-  <si>
-    <t>[DAT_REESTR]</t>
-  </si>
-  <si>
-    <t>[DAT_SVD]</t>
-  </si>
-  <si>
-    <t>[NOM_SVD]</t>
-  </si>
-  <si>
-    <t>[DAT_ANUL]</t>
-  </si>
-  <si>
-    <t>[IS_ACTUAL]</t>
   </si>
   <si>
     <t>КОД ПДВ</t>
@@ -770,18 +419,6 @@
     <t>Засновники зі статутним фондом &gt; 10%</t>
   </si>
   <si>
-    <t>[KOD_FOUND]</t>
-  </si>
-  <si>
-    <t>[NAME]</t>
-  </si>
-  <si>
-    <t>[SUM_INFUND]</t>
-  </si>
-  <si>
-    <t>[VIDS]</t>
-  </si>
-  <si>
     <t>Назва засновника</t>
   </si>
   <si>
@@ -794,6 +431,435 @@
   <si>
     <t>Статутний 
 фонд</t>
+  </si>
+  <si>
+    <t>[SH.N#]</t>
+  </si>
+  <si>
+    <t>[SH.OLD_STAN#]</t>
+  </si>
+  <si>
+    <t>[SH.NEW_STAN#]</t>
+  </si>
+  <si>
+    <t>[SH.D_CHANGE#]</t>
+  </si>
+  <si>
+    <t>[SH.IS_ACTUAL#]</t>
+  </si>
+  <si>
+    <t>[T1.STI#]</t>
+  </si>
+  <si>
+    <t>[T1.TIN#]</t>
+  </si>
+  <si>
+    <t>[T1.NAME#]</t>
+  </si>
+  <si>
+    <t>[T1.OBS#]</t>
+  </si>
+  <si>
+    <t>[T1.PDV#]</t>
+  </si>
+  <si>
+    <t>[T1.NOM#]</t>
+  </si>
+  <si>
+    <t>[T2.STI#]</t>
+  </si>
+  <si>
+    <t>[T2.CP_TIN#]</t>
+  </si>
+  <si>
+    <t>[T2.NAME#]</t>
+  </si>
+  <si>
+    <t>[T2.OBS#]</t>
+  </si>
+  <si>
+    <t>[T2.PDV#]</t>
+  </si>
+  <si>
+    <t>[T2.NOM#]</t>
+  </si>
+  <si>
+    <t>[C_STI#]</t>
+  </si>
+  <si>
+    <t>[PERIOD_YEAR#]</t>
+  </si>
+  <si>
+    <t>[PERIOD_MONTH#]</t>
+  </si>
+  <si>
+    <t>[D_GET#]</t>
+  </si>
+  <si>
+    <t>[N_REG#]</t>
+  </si>
+  <si>
+    <t>[TIN#]</t>
+  </si>
+  <si>
+    <t>[TYP#]</t>
+  </si>
+  <si>
+    <t>[P01#]</t>
+  </si>
+  <si>
+    <t>[P03#]</t>
+  </si>
+  <si>
+    <t>[P04#]</t>
+  </si>
+  <si>
+    <t>[P06#]</t>
+  </si>
+  <si>
+    <t>[VIDDACHA#]</t>
+  </si>
+  <si>
+    <t>[PERIOD#]</t>
+  </si>
+  <si>
+    <t>[R1#]</t>
+  </si>
+  <si>
+    <t>[SHTAT#]</t>
+  </si>
+  <si>
+    <t>[SER_ZP#]</t>
+  </si>
+  <si>
+    <t>[T1.C_STI#]</t>
+  </si>
+  <si>
+    <t>[T1.D_GET#]</t>
+  </si>
+  <si>
+    <t>[T1.N_REG#]</t>
+  </si>
+  <si>
+    <t>[T1.PERIOD_TYPE1#]</t>
+  </si>
+  <si>
+    <t>[T1.PERIOD#]</t>
+  </si>
+  <si>
+    <t>[T1.TYP_DECL#]</t>
+  </si>
+  <si>
+    <t>[T1.R11A#]</t>
+  </si>
+  <si>
+    <t>[T1.R11B#]</t>
+  </si>
+  <si>
+    <t>[T1.R12A#]</t>
+  </si>
+  <si>
+    <t>[T1.R12B#]</t>
+  </si>
+  <si>
+    <t>[T1.R20A#]</t>
+  </si>
+  <si>
+    <t>[T1.R30A#]</t>
+  </si>
+  <si>
+    <t>[T1.R90B#]</t>
+  </si>
+  <si>
+    <t>[T1.R101A#]</t>
+  </si>
+  <si>
+    <t>[T1.R101B#]</t>
+  </si>
+  <si>
+    <t>[T1.R102A#]</t>
+  </si>
+  <si>
+    <t>[T1.R103A#]</t>
+  </si>
+  <si>
+    <t>[T1.R111B#]</t>
+  </si>
+  <si>
+    <t>[T1.R112B#]</t>
+  </si>
+  <si>
+    <t>[T1.R170B#]</t>
+  </si>
+  <si>
+    <t>[T1.R180B#]</t>
+  </si>
+  <si>
+    <t>[T1.R181B#]</t>
+  </si>
+  <si>
+    <t>[T1.R190B#]</t>
+  </si>
+  <si>
+    <t>[T1.R210B#]</t>
+  </si>
+  <si>
+    <t>[T1.NAVANT#]</t>
+  </si>
+  <si>
+    <t>[T2.PERIOD_YEAR#]</t>
+  </si>
+  <si>
+    <t>[T2.KIL#]</t>
+  </si>
+  <si>
+    <t>[T2.R11A#]</t>
+  </si>
+  <si>
+    <t>[T2.R11B#]</t>
+  </si>
+  <si>
+    <t>[T2.R12A#]</t>
+  </si>
+  <si>
+    <t>[T2.R90B#]</t>
+  </si>
+  <si>
+    <t>[T2.R101B#]</t>
+  </si>
+  <si>
+    <t>[T2.R170B#]</t>
+  </si>
+  <si>
+    <t>[T2.R18B#]</t>
+  </si>
+  <si>
+    <t>[T2.NAVANT#]</t>
+  </si>
+  <si>
+    <t>[KIL#]</t>
+  </si>
+  <si>
+    <t>[R11A#]</t>
+  </si>
+  <si>
+    <t>[R11B#]</t>
+  </si>
+  <si>
+    <t>[R12A#]</t>
+  </si>
+  <si>
+    <t>[R90B#]</t>
+  </si>
+  <si>
+    <t>[R101B#]</t>
+  </si>
+  <si>
+    <t>[R170B#]</t>
+  </si>
+  <si>
+    <t>[R18B#]</t>
+  </si>
+  <si>
+    <t>[NAVANT#]</t>
+  </si>
+  <si>
+    <t>[K_ST_POVID#]</t>
+  </si>
+  <si>
+    <t>[K_ST_PRAZ#]</t>
+  </si>
+  <si>
+    <t>[C_STI_MAIN#]</t>
+  </si>
+  <si>
+    <t>[KOD_PDV#]</t>
+  </si>
+  <si>
+    <t>[DAT_ZAYAV#]</t>
+  </si>
+  <si>
+    <t>[DAT_REESTR#]</t>
+  </si>
+  <si>
+    <t>[DAT_SVD#]</t>
+  </si>
+  <si>
+    <t>[NOM_SVD#]</t>
+  </si>
+  <si>
+    <t>[DAT_ANUL#]</t>
+  </si>
+  <si>
+    <t>[IS_ACTUAL#]</t>
+  </si>
+  <si>
+    <t>[KOD_FOUND#]</t>
+  </si>
+  <si>
+    <t>[NAME#]</t>
+  </si>
+  <si>
+    <t>[SUM_INFUND#]</t>
+  </si>
+  <si>
+    <t>[VIDS#]</t>
+  </si>
+  <si>
+    <t>[T1.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[T1.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[T1.BLANK#]</t>
+  </si>
+  <si>
+    <t>[T2.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[T2.TIN#]</t>
+  </si>
+  <si>
+    <t>[T2.UR_NAME#]</t>
+  </si>
+  <si>
+    <t>[T2.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[T2.POST_NAME#]</t>
+  </si>
+  <si>
+    <t>[T2.TYP#]</t>
+  </si>
+  <si>
+    <t>[T2.PIN#]</t>
+  </si>
+  <si>
+    <t>[T3.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[T3.TIN#]</t>
+  </si>
+  <si>
+    <t>[T3.UR_NAME#]</t>
+  </si>
+  <si>
+    <t>[T3.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[T3.POST_NAME#]</t>
+  </si>
+  <si>
+    <t>[T3.TYP#]</t>
+  </si>
+  <si>
+    <t>[T3.PIN#]</t>
+  </si>
+  <si>
+    <t>[T3.NAME#]</t>
+  </si>
+  <si>
+    <t>[T4.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[T4.TIN#]</t>
+  </si>
+  <si>
+    <t>[T4.UR_NAME#]</t>
+  </si>
+  <si>
+    <t>[T4.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[T4.POST_NAME#]</t>
+  </si>
+  <si>
+    <t>[T4.TYP#]</t>
+  </si>
+  <si>
+    <t>[T4.PIN#]</t>
+  </si>
+  <si>
+    <t>[T4.NAME#]</t>
+  </si>
+  <si>
+    <t>[T5.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[T5.TIN#]</t>
+  </si>
+  <si>
+    <t>[T5.FOP_NAME#]</t>
+  </si>
+  <si>
+    <t>[T5.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[T5.POST_NAME#]</t>
+  </si>
+  <si>
+    <t>[T5.TYP#]</t>
+  </si>
+  <si>
+    <t>[T5.PIN#]</t>
+  </si>
+  <si>
+    <t>[T5.NAME#]</t>
+  </si>
+  <si>
+    <t>[A1300#]</t>
+  </si>
+  <si>
+    <t>[B1300#]</t>
+  </si>
+  <si>
+    <t>[A1495#]</t>
+  </si>
+  <si>
+    <t>[B1495#]</t>
+  </si>
+  <si>
+    <t>[A1595#]</t>
+  </si>
+  <si>
+    <t>[B1595#]</t>
+  </si>
+  <si>
+    <t>[A1695#]</t>
+  </si>
+  <si>
+    <t>[B1695#]</t>
+  </si>
+  <si>
+    <t>[A1700#]</t>
+  </si>
+  <si>
+    <t>[B1700#]</t>
+  </si>
+  <si>
+    <t>[A1800#]</t>
+  </si>
+  <si>
+    <t>[B1800#]</t>
+  </si>
+  <si>
+    <t>[A1900#]</t>
+  </si>
+  <si>
+    <t>[B1900#]</t>
+  </si>
+  <si>
+    <t>[T1.N#]</t>
+  </si>
+  <si>
+    <t>[T2.N#]</t>
+  </si>
+  <si>
+    <t>[T1.PERCENT#]</t>
+  </si>
+  <si>
+    <t>[T2.PERCENT#]</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1063,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1037,6 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1359,7 +1425,7 @@
   </sheetPr>
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1532,19 +1598,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1650,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I1" s="6" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -1592,51 +1658,51 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>233</v>
+        <v>214</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>215</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1664,35 +1730,35 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1706,9 +1772,312 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B2:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="26"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1722,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1741,11 +2110,11 @@
       <c r="E2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>169</v>
+      <c r="F2" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>4</v>
@@ -1753,41 +2122,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H5" s="6" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1806,11 +2175,11 @@
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>169</v>
+      <c r="F6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>4</v>
@@ -1818,36 +2187,36 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1879,7 +2248,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T1" s="6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
@@ -1908,7 +2277,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>43</v>
@@ -1943,61 +2312,61 @@
     </row>
     <row r="4" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +2375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2033,12 +2402,12 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M1" s="6" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M2" s="6" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="60" x14ac:dyDescent="0.25">
@@ -2052,69 +2421,69 @@
         <v>0</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" s="37" t="s">
+      <c r="H5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>151</v>
+      <c r="K5" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E4"/>
   <sheetViews>
@@ -2138,7 +2507,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -2146,335 +2515,32 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="26"/>
-      <c r="E2" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I14" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2483,7 +2549,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Z4"/>
+  <dimension ref="B1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2498,162 +2564,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Z1" s="45" t="s">
-        <v>215</v>
+      <c r="Z1" s="44" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="S3" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="U3" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="V3" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="W3" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="X3" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y3" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z3" s="44" t="s">
-        <v>214</v>
+      <c r="E3" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z3" s="43" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>57</v>
+        <v>164</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="K4" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="L4" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="M4" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="N4" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="O4" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="P4" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="Q4" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="R4" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="S4" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="T4" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="Q4" s="47" t="s">
+      <c r="U4" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="V4" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="W4" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="X4" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="U4" s="47" t="s">
+      <c r="Y4" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="V4" s="47" t="s">
+      <c r="Z4" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="W4" s="47" t="s">
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z7" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z9" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="X4" s="47" t="s">
+      <c r="R10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Y4" s="47" t="s">
+      <c r="S10" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" s="47" t="s">
+      <c r="T10" s="46" t="s">
         <v>192</v>
+      </c>
+      <c r="U10" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="V10" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="W10" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="X10" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y10" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z10" s="46" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2677,72 +2812,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K1" s="45" t="s">
-        <v>219</v>
+      <c r="K1" s="44" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>214</v>
+      <c r="C3" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>192</v>
+        <v>199</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2766,30 +2901,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D1" s="45" t="s">
-        <v>224</v>
+      <c r="D1" s="44" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>223</v>
+      <c r="C3" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -4,27 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Головна" sheetId="5" r:id="rId1"/>
-    <sheet name="Пов’язані" sheetId="9" r:id="rId2"/>
+    <sheet name="Реєстраційні дані" sheetId="5" r:id="rId1"/>
+    <sheet name="Пов’язані особи" sheetId="9" r:id="rId2"/>
     <sheet name="Контрагенти" sheetId="13" r:id="rId3"/>
     <sheet name="Баланс" sheetId="6" r:id="rId4"/>
-    <sheet name="Прибуток" sheetId="7" r:id="rId5"/>
-    <sheet name="ЄСВ" sheetId="8" r:id="rId6"/>
-    <sheet name="ПДВ" sheetId="14" r:id="rId7"/>
-    <sheet name="ПДВ РІК" sheetId="15" r:id="rId8"/>
-    <sheet name="Повідомлення" sheetId="16" r:id="rId9"/>
-    <sheet name="Реєстр ПДВ" sheetId="17" r:id="rId10"/>
-    <sheet name="Засновники" sheetId="18" r:id="rId11"/>
+    <sheet name="ПДВ" sheetId="14" r:id="rId5"/>
+    <sheet name="Прибуток" sheetId="7" r:id="rId6"/>
+    <sheet name="ЄСВ" sheetId="8" r:id="rId7"/>
+    <sheet name="Повідомлення" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="262">
   <si>
     <t>ДПІ</t>
   </si>
@@ -387,44 +384,6 @@
     <t>Інформація про прийняття найманих працівників</t>
   </si>
   <si>
-    <t>Дані з реєстру ПДВ</t>
-  </si>
-  <si>
-    <t>КОД ПДВ</t>
-  </si>
-  <si>
-    <t>Актуальність</t>
-  </si>
-  <si>
-    <t>Дата 
-заяви</t>
-  </si>
-  <si>
-    <t>Дата реєстрації 
-платником ПДВ</t>
-  </si>
-  <si>
-    <t>Дата 
-свідоцтва</t>
-  </si>
-  <si>
-    <t>Номер 
-свідоцтва</t>
-  </si>
-  <si>
-    <t>Дата 
-анулювання</t>
-  </si>
-  <si>
-    <t>Засновники зі статутним фондом &gt; 10%</t>
-  </si>
-  <si>
-    <t>Назва засновника</t>
-  </si>
-  <si>
-    <t>Відсоток</t>
-  </si>
-  <si>
     <t>Код 
 засновника</t>
   </si>
@@ -637,75 +596,12 @@
     <t>[T2.NAVANT#]</t>
   </si>
   <si>
-    <t>[KIL#]</t>
-  </si>
-  <si>
-    <t>[R11A#]</t>
-  </si>
-  <si>
-    <t>[R11B#]</t>
-  </si>
-  <si>
-    <t>[R12A#]</t>
-  </si>
-  <si>
-    <t>[R90B#]</t>
-  </si>
-  <si>
-    <t>[R101B#]</t>
-  </si>
-  <si>
-    <t>[R170B#]</t>
-  </si>
-  <si>
-    <t>[R18B#]</t>
-  </si>
-  <si>
-    <t>[NAVANT#]</t>
-  </si>
-  <si>
     <t>[K_ST_POVID#]</t>
   </si>
   <si>
     <t>[K_ST_PRAZ#]</t>
   </si>
   <si>
-    <t>[C_STI_MAIN#]</t>
-  </si>
-  <si>
-    <t>[KOD_PDV#]</t>
-  </si>
-  <si>
-    <t>[DAT_ZAYAV#]</t>
-  </si>
-  <si>
-    <t>[DAT_REESTR#]</t>
-  </si>
-  <si>
-    <t>[DAT_SVD#]</t>
-  </si>
-  <si>
-    <t>[NOM_SVD#]</t>
-  </si>
-  <si>
-    <t>[DAT_ANUL#]</t>
-  </si>
-  <si>
-    <t>[IS_ACTUAL#]</t>
-  </si>
-  <si>
-    <t>[KOD_FOUND#]</t>
-  </si>
-  <si>
-    <t>[NAME#]</t>
-  </si>
-  <si>
-    <t>[SUM_INFUND#]</t>
-  </si>
-  <si>
-    <t>[VIDS#]</t>
-  </si>
-  <si>
     <t>[T1.C_DISTR#]</t>
   </si>
   <si>
@@ -860,6 +756,69 @@
   </si>
   <si>
     <t>[T2.PERCENT#]</t>
+  </si>
+  <si>
+    <t>КВЕД</t>
+  </si>
+  <si>
+    <t>Назва КВЕД</t>
+  </si>
+  <si>
+    <t>Інші види діяльності</t>
+  </si>
+  <si>
+    <t>[KVED.NU#]</t>
+  </si>
+  <si>
+    <t>[KVED.KVED#]</t>
+  </si>
+  <si>
+    <t>[KVED.BLANK#]</t>
+  </si>
+  <si>
+    <t>Засновники</t>
+  </si>
+  <si>
+    <t>Назва 
+засновника</t>
+  </si>
+  <si>
+    <t>[FNDR.SUM_INFUND#]</t>
+  </si>
+  <si>
+    <t>[FNDR.KOD_FOUND#]</t>
+  </si>
+  <si>
+    <t>[FNDR.NAME#]</t>
+  </si>
+  <si>
+    <t>{r21manager.dir_pin}</t>
+  </si>
+  <si>
+    <t>{r21manager.buh_pin}</t>
+  </si>
+  <si>
+    <t>Діючі РРО</t>
+  </si>
+  <si>
+    <t>Фіскальний
+номер</t>
+  </si>
+  <si>
+    <t>Дата
+реєстрації</t>
+  </si>
+  <si>
+    <t>[RRO.D_REG#]</t>
+  </si>
+  <si>
+    <t>[RRO.N_FIS#]</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>[FNDR.BLANK#]</t>
   </si>
 </sst>
 </file>
@@ -988,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1012,12 +971,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1103,11 +1056,41 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1423,15 +1406,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="9"/>
@@ -1449,7 +1432,7 @@
       <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1466,15 +1449,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1483,15 +1466,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1510,258 +1493,235 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="E12" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="E13" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+    </row>
+    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="17" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>135</v>
+      <c r="A19" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
     <mergeCell ref="D7:J7"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E11:J11"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1790,50 +1750,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="26"/>
+      <c r="C2" s="24"/>
       <c r="E2" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>224</v>
+        <v>191</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1842,55 +1802,55 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>227</v>
+        <v>194</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>144</v>
+        <v>197</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -1899,55 +1859,55 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>234</v>
+        <v>201</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>239</v>
+        <v>204</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -1956,55 +1916,55 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>242</v>
+        <v>209</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>247</v>
+        <v>212</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -2013,55 +1973,55 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>255</v>
+        <v>220</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2037,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2095,55 +2055,55 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2160,55 +2120,55 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>144</v>
+        <v>132</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>147</v>
+        <v>135</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,121 +2212,121 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>269</v>
+    <row r="4" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2376,175 +2336,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="14" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10" max="11" width="11" style="18" customWidth="1"/>
-    <col min="12" max="13" width="10" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M2" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2564,231 +2355,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="42" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="Z3" s="43" t="s">
+      <c r="Z3" s="41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="N4" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="O4" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="P4" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="Q4" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="R4" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="S4" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="T4" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="U4" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="V4" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="W4" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="X4" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="Y4" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="Z4" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="P4" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="S4" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="U4" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="V4" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="W4" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="X4" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y4" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z4" s="46" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Z7" s="44" t="s">
+      <c r="Z7" s="42" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="Q9" s="40" t="s">
+      <c r="Q9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="S9" s="41" t="s">
+      <c r="S9" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="41" t="s">
+      <c r="T9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="41" t="s">
+      <c r="U9" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="V9" s="43" t="s">
+      <c r="V9" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="W9" s="43" t="s">
+      <c r="W9" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="X9" s="42" t="s">
+      <c r="X9" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Y9" s="41" t="s">
+      <c r="Y9" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="Z9" s="43" t="s">
+      <c r="Z9" s="41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q10" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S10" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="T10" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="U10" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="V10" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="W10" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="X10" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y10" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z10" s="46" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="S10" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="T10" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="U10" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="W10" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="X10" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y10" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z10" s="44" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2797,96 +2588,176 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K4"/>
+  <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="16" customWidth="1"/>
+    <col min="10" max="11" width="11" style="16" customWidth="1"/>
+    <col min="12" max="13" width="10" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K1" s="44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>207</v>
+      <c r="C4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="1000" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D4"/>
   <sheetViews>
@@ -2901,30 +2772,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -15,13 +15,14 @@
     <sheet name="Прибуток" sheetId="7" r:id="rId6"/>
     <sheet name="ЄСВ" sheetId="8" r:id="rId7"/>
     <sheet name="Повідомлення" sheetId="16" r:id="rId8"/>
+    <sheet name="1-ДФ" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="269">
   <si>
     <t>ДПІ</t>
   </si>
@@ -392,372 +393,6 @@
 фонд</t>
   </si>
   <si>
-    <t>[SH.N#]</t>
-  </si>
-  <si>
-    <t>[SH.OLD_STAN#]</t>
-  </si>
-  <si>
-    <t>[SH.NEW_STAN#]</t>
-  </si>
-  <si>
-    <t>[SH.D_CHANGE#]</t>
-  </si>
-  <si>
-    <t>[SH.IS_ACTUAL#]</t>
-  </si>
-  <si>
-    <t>[T1.STI#]</t>
-  </si>
-  <si>
-    <t>[T1.TIN#]</t>
-  </si>
-  <si>
-    <t>[T1.NAME#]</t>
-  </si>
-  <si>
-    <t>[T1.OBS#]</t>
-  </si>
-  <si>
-    <t>[T1.PDV#]</t>
-  </si>
-  <si>
-    <t>[T1.NOM#]</t>
-  </si>
-  <si>
-    <t>[T2.STI#]</t>
-  </si>
-  <si>
-    <t>[T2.CP_TIN#]</t>
-  </si>
-  <si>
-    <t>[T2.NAME#]</t>
-  </si>
-  <si>
-    <t>[T2.OBS#]</t>
-  </si>
-  <si>
-    <t>[T2.PDV#]</t>
-  </si>
-  <si>
-    <t>[T2.NOM#]</t>
-  </si>
-  <si>
-    <t>[C_STI#]</t>
-  </si>
-  <si>
-    <t>[PERIOD_YEAR#]</t>
-  </si>
-  <si>
-    <t>[PERIOD_MONTH#]</t>
-  </si>
-  <si>
-    <t>[D_GET#]</t>
-  </si>
-  <si>
-    <t>[N_REG#]</t>
-  </si>
-  <si>
-    <t>[TIN#]</t>
-  </si>
-  <si>
-    <t>[TYP#]</t>
-  </si>
-  <si>
-    <t>[P01#]</t>
-  </si>
-  <si>
-    <t>[P03#]</t>
-  </si>
-  <si>
-    <t>[P04#]</t>
-  </si>
-  <si>
-    <t>[P06#]</t>
-  </si>
-  <si>
-    <t>[VIDDACHA#]</t>
-  </si>
-  <si>
-    <t>[PERIOD#]</t>
-  </si>
-  <si>
-    <t>[R1#]</t>
-  </si>
-  <si>
-    <t>[SHTAT#]</t>
-  </si>
-  <si>
-    <t>[SER_ZP#]</t>
-  </si>
-  <si>
-    <t>[T1.C_STI#]</t>
-  </si>
-  <si>
-    <t>[T1.D_GET#]</t>
-  </si>
-  <si>
-    <t>[T1.N_REG#]</t>
-  </si>
-  <si>
-    <t>[T1.PERIOD_TYPE1#]</t>
-  </si>
-  <si>
-    <t>[T1.PERIOD#]</t>
-  </si>
-  <si>
-    <t>[T1.TYP_DECL#]</t>
-  </si>
-  <si>
-    <t>[T1.R11A#]</t>
-  </si>
-  <si>
-    <t>[T1.R11B#]</t>
-  </si>
-  <si>
-    <t>[T1.R12A#]</t>
-  </si>
-  <si>
-    <t>[T1.R12B#]</t>
-  </si>
-  <si>
-    <t>[T1.R20A#]</t>
-  </si>
-  <si>
-    <t>[T1.R30A#]</t>
-  </si>
-  <si>
-    <t>[T1.R90B#]</t>
-  </si>
-  <si>
-    <t>[T1.R101A#]</t>
-  </si>
-  <si>
-    <t>[T1.R101B#]</t>
-  </si>
-  <si>
-    <t>[T1.R102A#]</t>
-  </si>
-  <si>
-    <t>[T1.R103A#]</t>
-  </si>
-  <si>
-    <t>[T1.R111B#]</t>
-  </si>
-  <si>
-    <t>[T1.R112B#]</t>
-  </si>
-  <si>
-    <t>[T1.R170B#]</t>
-  </si>
-  <si>
-    <t>[T1.R180B#]</t>
-  </si>
-  <si>
-    <t>[T1.R181B#]</t>
-  </si>
-  <si>
-    <t>[T1.R190B#]</t>
-  </si>
-  <si>
-    <t>[T1.R210B#]</t>
-  </si>
-  <si>
-    <t>[T1.NAVANT#]</t>
-  </si>
-  <si>
-    <t>[T2.PERIOD_YEAR#]</t>
-  </si>
-  <si>
-    <t>[T2.KIL#]</t>
-  </si>
-  <si>
-    <t>[T2.R11A#]</t>
-  </si>
-  <si>
-    <t>[T2.R11B#]</t>
-  </si>
-  <si>
-    <t>[T2.R12A#]</t>
-  </si>
-  <si>
-    <t>[T2.R90B#]</t>
-  </si>
-  <si>
-    <t>[T2.R101B#]</t>
-  </si>
-  <si>
-    <t>[T2.R170B#]</t>
-  </si>
-  <si>
-    <t>[T2.R18B#]</t>
-  </si>
-  <si>
-    <t>[T2.NAVANT#]</t>
-  </si>
-  <si>
-    <t>[K_ST_POVID#]</t>
-  </si>
-  <si>
-    <t>[K_ST_PRAZ#]</t>
-  </si>
-  <si>
-    <t>[T1.C_DISTR#]</t>
-  </si>
-  <si>
-    <t>[T1.C_STAN#]</t>
-  </si>
-  <si>
-    <t>[T1.BLANK#]</t>
-  </si>
-  <si>
-    <t>[T2.C_DISTR#]</t>
-  </si>
-  <si>
-    <t>[T2.TIN#]</t>
-  </si>
-  <si>
-    <t>[T2.UR_NAME#]</t>
-  </si>
-  <si>
-    <t>[T2.C_STAN#]</t>
-  </si>
-  <si>
-    <t>[T2.POST_NAME#]</t>
-  </si>
-  <si>
-    <t>[T2.TYP#]</t>
-  </si>
-  <si>
-    <t>[T2.PIN#]</t>
-  </si>
-  <si>
-    <t>[T3.C_DISTR#]</t>
-  </si>
-  <si>
-    <t>[T3.TIN#]</t>
-  </si>
-  <si>
-    <t>[T3.UR_NAME#]</t>
-  </si>
-  <si>
-    <t>[T3.C_STAN#]</t>
-  </si>
-  <si>
-    <t>[T3.POST_NAME#]</t>
-  </si>
-  <si>
-    <t>[T3.TYP#]</t>
-  </si>
-  <si>
-    <t>[T3.PIN#]</t>
-  </si>
-  <si>
-    <t>[T3.NAME#]</t>
-  </si>
-  <si>
-    <t>[T4.C_DISTR#]</t>
-  </si>
-  <si>
-    <t>[T4.TIN#]</t>
-  </si>
-  <si>
-    <t>[T4.UR_NAME#]</t>
-  </si>
-  <si>
-    <t>[T4.C_STAN#]</t>
-  </si>
-  <si>
-    <t>[T4.POST_NAME#]</t>
-  </si>
-  <si>
-    <t>[T4.TYP#]</t>
-  </si>
-  <si>
-    <t>[T4.PIN#]</t>
-  </si>
-  <si>
-    <t>[T4.NAME#]</t>
-  </si>
-  <si>
-    <t>[T5.C_DISTR#]</t>
-  </si>
-  <si>
-    <t>[T5.TIN#]</t>
-  </si>
-  <si>
-    <t>[T5.FOP_NAME#]</t>
-  </si>
-  <si>
-    <t>[T5.C_STAN#]</t>
-  </si>
-  <si>
-    <t>[T5.POST_NAME#]</t>
-  </si>
-  <si>
-    <t>[T5.TYP#]</t>
-  </si>
-  <si>
-    <t>[T5.PIN#]</t>
-  </si>
-  <si>
-    <t>[T5.NAME#]</t>
-  </si>
-  <si>
-    <t>[A1300#]</t>
-  </si>
-  <si>
-    <t>[B1300#]</t>
-  </si>
-  <si>
-    <t>[A1495#]</t>
-  </si>
-  <si>
-    <t>[B1495#]</t>
-  </si>
-  <si>
-    <t>[A1595#]</t>
-  </si>
-  <si>
-    <t>[B1595#]</t>
-  </si>
-  <si>
-    <t>[A1695#]</t>
-  </si>
-  <si>
-    <t>[B1695#]</t>
-  </si>
-  <si>
-    <t>[A1700#]</t>
-  </si>
-  <si>
-    <t>[B1700#]</t>
-  </si>
-  <si>
-    <t>[A1800#]</t>
-  </si>
-  <si>
-    <t>[B1800#]</t>
-  </si>
-  <si>
-    <t>[A1900#]</t>
-  </si>
-  <si>
-    <t>[B1900#]</t>
-  </si>
-  <si>
-    <t>[T1.N#]</t>
-  </si>
-  <si>
-    <t>[T2.N#]</t>
-  </si>
-  <si>
-    <t>[T1.PERCENT#]</t>
-  </si>
-  <si>
-    <t>[T2.PERCENT#]</t>
-  </si>
-  <si>
     <t>КВЕД</t>
   </si>
   <si>
@@ -765,15 +400,6 @@
   </si>
   <si>
     <t>Інші види діяльності</t>
-  </si>
-  <si>
-    <t>[KVED.NU#]</t>
-  </si>
-  <si>
-    <t>[KVED.KVED#]</t>
-  </si>
-  <si>
-    <t>[KVED.BLANK#]</t>
   </si>
   <si>
     <t>Засновники</t>
@@ -783,15 +409,6 @@
 засновника</t>
   </si>
   <si>
-    <t>[FNDR.SUM_INFUND#]</t>
-  </si>
-  <si>
-    <t>[FNDR.KOD_FOUND#]</t>
-  </si>
-  <si>
-    <t>[FNDR.NAME#]</t>
-  </si>
-  <si>
     <t>{r21manager.dir_pin}</t>
   </si>
   <si>
@@ -809,16 +426,424 @@
 реєстрації</t>
   </si>
   <si>
-    <t>[RRO.D_REG#]</t>
-  </si>
-  <si>
-    <t>[RRO.N_FIS#]</t>
-  </si>
-  <si>
     <t>Телефон</t>
   </si>
   <si>
-    <t>[FNDR.BLANK#]</t>
+    <t>Ознака
+доходу</t>
+  </si>
+  <si>
+    <t>[#SH.N#]</t>
+  </si>
+  <si>
+    <t>[#SH.OLD_STAN#]</t>
+  </si>
+  <si>
+    <t>[#SH.NEW_STAN#]</t>
+  </si>
+  <si>
+    <t>[#SH.D_CHANGE#]</t>
+  </si>
+  <si>
+    <t>[#SH.IS_ACTUAL#]</t>
+  </si>
+  <si>
+    <t>[#KVED.KVED#]</t>
+  </si>
+  <si>
+    <t>[#KVED.NU#]</t>
+  </si>
+  <si>
+    <t>[#KVED.BLANK#]</t>
+  </si>
+  <si>
+    <t>[#FNDR.SUM_INFUND#]</t>
+  </si>
+  <si>
+    <t>[#FNDR.KOD_FOUND#]</t>
+  </si>
+  <si>
+    <t>[#FNDR.NAME#]</t>
+  </si>
+  <si>
+    <t>[#FNDR.BLANK#]</t>
+  </si>
+  <si>
+    <t>[#RRO.N_FIS#]</t>
+  </si>
+  <si>
+    <t>[#RRO.D_REG#]</t>
+  </si>
+  <si>
+    <t>[#T1.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[#T1.TIN#]</t>
+  </si>
+  <si>
+    <t>[#T1.NAME#]</t>
+  </si>
+  <si>
+    <t>[#T1.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[#T1.BLANK#]</t>
+  </si>
+  <si>
+    <t>[#T2.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[#T2.TIN#]</t>
+  </si>
+  <si>
+    <t>[#T2.UR_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T2.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[#T2.POST_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T2.TYP#]</t>
+  </si>
+  <si>
+    <t>[#T2.PIN#]</t>
+  </si>
+  <si>
+    <t>[#T2.NAME#]</t>
+  </si>
+  <si>
+    <t>[#T3.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[#T3.TIN#]</t>
+  </si>
+  <si>
+    <t>[#T3.UR_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T3.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[#T3.POST_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T3.TYP#]</t>
+  </si>
+  <si>
+    <t>[#T3.PIN#]</t>
+  </si>
+  <si>
+    <t>[#T3.NAME#]</t>
+  </si>
+  <si>
+    <t>[#T4.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[#T4.TIN#]</t>
+  </si>
+  <si>
+    <t>[#T4.UR_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T4.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[#T4.POST_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T4.TYP#]</t>
+  </si>
+  <si>
+    <t>[#T4.PIN#]</t>
+  </si>
+  <si>
+    <t>[#T4.NAME#]</t>
+  </si>
+  <si>
+    <t>[#T5.C_DISTR#]</t>
+  </si>
+  <si>
+    <t>[#T5.TIN#]</t>
+  </si>
+  <si>
+    <t>[#T5.FOP_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T5.C_STAN#]</t>
+  </si>
+  <si>
+    <t>[#T5.POST_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T5.TYP#]</t>
+  </si>
+  <si>
+    <t>[#T5.PIN#]</t>
+  </si>
+  <si>
+    <t>[#T5.NAME#]</t>
+  </si>
+  <si>
+    <t>[#T1.N#]</t>
+  </si>
+  <si>
+    <t>[#T1.STI#]</t>
+  </si>
+  <si>
+    <t>[#T1.PERCENT#]</t>
+  </si>
+  <si>
+    <t>[#T1.OBS#]</t>
+  </si>
+  <si>
+    <t>[#T1.PDV#]</t>
+  </si>
+  <si>
+    <t>[#T1.NOM#]</t>
+  </si>
+  <si>
+    <t>[#T2.N#]</t>
+  </si>
+  <si>
+    <t>[#T2.STI#]</t>
+  </si>
+  <si>
+    <t>[#T2.CP_TIN#]</t>
+  </si>
+  <si>
+    <t>[#T2.PERCENT#]</t>
+  </si>
+  <si>
+    <t>[#T2.OBS#]</t>
+  </si>
+  <si>
+    <t>[#T2.PDV#]</t>
+  </si>
+  <si>
+    <t>[#T2.NOM#]</t>
+  </si>
+  <si>
+    <t>[#C_STI#]</t>
+  </si>
+  <si>
+    <t>[#PERIOD_YEAR#]</t>
+  </si>
+  <si>
+    <t>[#PERIOD_MONTH#]</t>
+  </si>
+  <si>
+    <t>[#D_GET#]</t>
+  </si>
+  <si>
+    <t>[#N_REG#]</t>
+  </si>
+  <si>
+    <t>[#A1300#]</t>
+  </si>
+  <si>
+    <t>[#B1300#]</t>
+  </si>
+  <si>
+    <t>[#A1495#]</t>
+  </si>
+  <si>
+    <t>[#B1495#]</t>
+  </si>
+  <si>
+    <t>[#A1595#]</t>
+  </si>
+  <si>
+    <t>[#B1595#]</t>
+  </si>
+  <si>
+    <t>[#A1695#]</t>
+  </si>
+  <si>
+    <t>[#B1695#]</t>
+  </si>
+  <si>
+    <t>[#A1700#]</t>
+  </si>
+  <si>
+    <t>[#B1700#]</t>
+  </si>
+  <si>
+    <t>[#A1800#]</t>
+  </si>
+  <si>
+    <t>[#B1800#]</t>
+  </si>
+  <si>
+    <t>[#A1900#]</t>
+  </si>
+  <si>
+    <t>[#B1900#]</t>
+  </si>
+  <si>
+    <t>[#T1.C_STI#]</t>
+  </si>
+  <si>
+    <t>[#T1.D_GET#]</t>
+  </si>
+  <si>
+    <t>[#T1.N_REG#]</t>
+  </si>
+  <si>
+    <t>[#T1.PERIOD_TYPE1#]</t>
+  </si>
+  <si>
+    <t>[#T1.PERIOD#]</t>
+  </si>
+  <si>
+    <t>[#T1.TYP_DECL#]</t>
+  </si>
+  <si>
+    <t>[#T1.R11A#]</t>
+  </si>
+  <si>
+    <t>[#T1.R11B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R12A#]</t>
+  </si>
+  <si>
+    <t>[#T1.R12B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R20A#]</t>
+  </si>
+  <si>
+    <t>[#T1.R30A#]</t>
+  </si>
+  <si>
+    <t>[#T1.R90B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R101A#]</t>
+  </si>
+  <si>
+    <t>[#T1.R101B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R102A#]</t>
+  </si>
+  <si>
+    <t>[#T1.R103A#]</t>
+  </si>
+  <si>
+    <t>[#T1.R111B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R112B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R170B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R180B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R181B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R190B#]</t>
+  </si>
+  <si>
+    <t>[#T1.R210B#]</t>
+  </si>
+  <si>
+    <t>[#T1.NAVANT#]</t>
+  </si>
+  <si>
+    <t>[#T2.PERIOD_YEAR#]</t>
+  </si>
+  <si>
+    <t>[#T2.KIL#]</t>
+  </si>
+  <si>
+    <t>[#T2.R11A#]</t>
+  </si>
+  <si>
+    <t>[#T2.R11B#]</t>
+  </si>
+  <si>
+    <t>[#T2.R12A#]</t>
+  </si>
+  <si>
+    <t>[#T2.R90B#]</t>
+  </si>
+  <si>
+    <t>[#T2.R101B#]</t>
+  </si>
+  <si>
+    <t>[#T2.R170B#]</t>
+  </si>
+  <si>
+    <t>[#T2.R18B#]</t>
+  </si>
+  <si>
+    <t>[#T2.NAVANT#]</t>
+  </si>
+  <si>
+    <t>[#TIN#]</t>
+  </si>
+  <si>
+    <t>[#TYP#]</t>
+  </si>
+  <si>
+    <t>[#P01#]</t>
+  </si>
+  <si>
+    <t>[#P03#]</t>
+  </si>
+  <si>
+    <t>[#P04#]</t>
+  </si>
+  <si>
+    <t>[#P06#]</t>
+  </si>
+  <si>
+    <t>[#VIDDACHA#]</t>
+  </si>
+  <si>
+    <t>[#PERIOD#]</t>
+  </si>
+  <si>
+    <t>[#R1#]</t>
+  </si>
+  <si>
+    <t>[#SHTAT#]</t>
+  </si>
+  <si>
+    <t>[#SER_ZP#]</t>
+  </si>
+  <si>
+    <t>[#K_ST_POVID#]</t>
+  </si>
+  <si>
+    <t>[#K_ST_PRAZ#]</t>
+  </si>
+  <si>
+    <t>[#YEAR#]</t>
+  </si>
+  <si>
+    <t>[#OZN_DOX#]</t>
+  </si>
+  <si>
+    <t>[#CNT#]</t>
+  </si>
+  <si>
+    <t>[#DOX#]</t>
+  </si>
+  <si>
+    <t>Нараховний
+дохід, грн</t>
+  </si>
+  <si>
+    <t>К-ть 
+фіз. осіб</t>
   </si>
 </sst>
 </file>
@@ -947,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,6 +1116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,7 +1525,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="E11" s="57" t="s">
         <v>68</v>
@@ -1513,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>30</v>
@@ -1532,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>28</v>
@@ -1602,19 +1630,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,7 +1656,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="48" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="46"/>
@@ -1636,10 +1664,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="11" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="46"/>
@@ -1647,23 +1675,23 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="49" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" s="6" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1674,42 +1702,42 @@
         <v>118</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1772,28 +1800,28 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1829,28 +1857,28 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -1886,28 +1914,28 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -1943,28 +1971,28 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -2000,28 +2028,28 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2082,28 +2110,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,28 +2175,28 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,61 +2300,61 @@
     </row>
     <row r="4" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2438,79 +2466,79 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="M4" s="44" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="R4" s="44" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="S4" s="44" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="U4" s="44" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="V4" s="44" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="W4" s="44" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="X4" s="44" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="Y4" s="44" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="Z4" s="44" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -2552,34 +2580,34 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q10" s="1" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="S10" s="44" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="T10" s="44" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="U10" s="44" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="V10" s="44" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="W10" s="44" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="X10" s="44" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="Y10" s="44" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="Z10" s="44" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2663,40 +2691,40 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2739,16 +2767,16 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2789,16 +2817,66 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="271">
   <si>
     <t>ДПІ</t>
   </si>
@@ -844,6 +844,12 @@
   <si>
     <t>К-ть 
 фіз. осіб</t>
+  </si>
+  <si>
+    <t>1-ДФ, ознаки доходу (106,109,157)</t>
+  </si>
+  <si>
+    <t>Роки 2016-2018</t>
   </si>
 </sst>
 </file>
@@ -972,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1102,6 +1108,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1117,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1477,15 +1486,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1494,15 +1503,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1527,14 +1536,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1546,14 +1555,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1565,29 +1574,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1596,15 +1605,15 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="15" t="s">
@@ -2836,7 +2845,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E3"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2847,31 +2856,44 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C5" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D5" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E5" s="53" t="s">
         <v>266</v>
       </c>
     </row>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Реєстраційні дані" sheetId="5" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="ЄСВ" sheetId="8" r:id="rId7"/>
     <sheet name="Повідомлення" sheetId="16" r:id="rId8"/>
     <sheet name="1-ДФ" sheetId="17" r:id="rId9"/>
+    <sheet name="Площа" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="299">
   <si>
     <t>ДПІ</t>
   </si>
@@ -850,6 +851,90 @@
   </si>
   <si>
     <t>Роки 2016-2018</t>
+  </si>
+  <si>
+    <t>Код ДПІ</t>
+  </si>
+  <si>
+    <t>КОАТУУ</t>
+  </si>
+  <si>
+    <t>Дата подачі звітності</t>
+  </si>
+  <si>
+    <t>Загальна площа землі, га</t>
+  </si>
+  <si>
+    <t>Рілля</t>
+  </si>
+  <si>
+    <t>Сіножаті</t>
+  </si>
+  <si>
+    <t>Пасовища</t>
+  </si>
+  <si>
+    <t>Багаторічні насадження</t>
+  </si>
+  <si>
+    <t>Водне плесо</t>
+  </si>
+  <si>
+    <t>Назва ОТГ / сільської ради</t>
+  </si>
+  <si>
+    <t>Площа</t>
+  </si>
+  <si>
+    <t>[#T1.PERIOD_YEAR#]</t>
+  </si>
+  <si>
+    <t>[#T1.KOATUU#]</t>
+  </si>
+  <si>
+    <t>[#T1.TERYTORIA#]</t>
+  </si>
+  <si>
+    <t>[#T1.RIL_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T1.SIN_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T1.PAS_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T1.BAG_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T1.VOD_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T1.ALL_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T2.C_STI#]</t>
+  </si>
+  <si>
+    <t>[#T2.RIL_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T2.SIN_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T2.PAS_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T2.BAG_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T2.VOD_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T2.ALL_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T2.BLANK#]</t>
   </si>
 </sst>
 </file>
@@ -1111,6 +1196,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1125,9 +1213,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,7 +1530,7 @@
   </sheetPr>
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1486,15 +1571,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1503,15 +1588,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1536,14 +1621,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1555,14 +1640,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1574,29 +1659,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1605,15 +1690,15 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="15" t="s">
@@ -1761,6 +1846,181 @@
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2867,7 +3127,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="59"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Реєстраційні дані" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
   <si>
     <t>ДПІ</t>
   </si>
@@ -883,9 +883,6 @@
     <t>Назва ОТГ / сільської ради</t>
   </si>
   <si>
-    <t>Площа</t>
-  </si>
-  <si>
     <t>[#T1.PERIOD_YEAR#]</t>
   </si>
   <si>
@@ -935,6 +932,78 @@
   </si>
   <si>
     <t>[#T2.BLANK#]</t>
+  </si>
+  <si>
+    <t>Площа, Загальна декларація</t>
+  </si>
+  <si>
+    <t>Площа, Звітна декларація</t>
+  </si>
+  <si>
+    <t>[#T3.PERIOD_YEAR#]</t>
+  </si>
+  <si>
+    <t>[#T3.C_STI#]</t>
+  </si>
+  <si>
+    <t>[#T3.RIL_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T3.SIN_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T3.PAS_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T3.BAG_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T3.VOD_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T3.ALL_PLO#]</t>
+  </si>
+  <si>
+    <t>Площа, Звітна декларація в розрізі ДПІ</t>
+  </si>
+  <si>
+    <t>[#T4.PERIOD_YEAR#]</t>
+  </si>
+  <si>
+    <t>[#T4.C_STI#]</t>
+  </si>
+  <si>
+    <t>[#T4.KOATUU#]</t>
+  </si>
+  <si>
+    <t>[#T4.TERYTORIA#]</t>
+  </si>
+  <si>
+    <t>[#T4.D_GET#]</t>
+  </si>
+  <si>
+    <t>[#T4.RIL_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T4.SIN_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T4.PAS_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T4.BAG_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T4.VOD_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T4.ALL_PLO#]</t>
+  </si>
+  <si>
+    <t>[#T3.BLANK#]</t>
+  </si>
+  <si>
+    <t>Площа, Звітна декларація в розрізі КОАТУУ</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,6 +1266,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1530,7 +1603,7 @@
   </sheetPr>
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1571,15 +1644,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1588,15 +1661,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1621,14 +1694,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1640,14 +1713,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1659,29 +1732,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1690,15 +1763,15 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="15" t="s">
@@ -1854,9 +1927,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1865,20 +1938,20 @@
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L1" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1915,40 +1988,58 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>216</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L3" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1985,37 +2076,187 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>216</v>
+        <v>297</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>290</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -1603,14 +1603,16 @@
   </sheetPr>
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="9" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Реєстраційні дані" sheetId="5" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Повідомлення" sheetId="16" r:id="rId8"/>
     <sheet name="1-ДФ" sheetId="17" r:id="rId9"/>
     <sheet name="Площа" sheetId="18" r:id="rId10"/>
+    <sheet name="Сплата" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="416">
   <si>
     <t>ДПІ</t>
   </si>
@@ -1004,6 +1005,288 @@
   </si>
   <si>
     <t>Площа, Звітна декларація в розрізі КОАТУУ</t>
+  </si>
+  <si>
+    <t>Зведений бюджет</t>
+  </si>
+  <si>
+    <t>Державний бюджет</t>
+  </si>
+  <si>
+    <t>Місцевий бюджет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ПДФО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Прибуток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ПДВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Військовий збір</t>
+  </si>
+  <si>
+    <t>Сплата і борг</t>
+  </si>
+  <si>
+    <t>Сплата</t>
+  </si>
+  <si>
+    <t>Борг</t>
+  </si>
+  <si>
+    <t>{DT1}</t>
+  </si>
+  <si>
+    <t>{DT2}</t>
+  </si>
+  <si>
+    <t>{DT3}</t>
+  </si>
+  <si>
+    <t>{DT4}</t>
+  </si>
+  <si>
+    <t>{SPL_ZVED1}</t>
+  </si>
+  <si>
+    <t>{SPL_ZVED2}</t>
+  </si>
+  <si>
+    <t>{SPL_ZVED3}</t>
+  </si>
+  <si>
+    <t>{SPL_ZVED4}</t>
+  </si>
+  <si>
+    <t>{BORG_ZVED1}</t>
+  </si>
+  <si>
+    <t>{BORG_ZVED2}</t>
+  </si>
+  <si>
+    <t>{BORG_ZVED3}</t>
+  </si>
+  <si>
+    <t>{BORG_ZVED4}</t>
+  </si>
+  <si>
+    <t>{SPL_D1}</t>
+  </si>
+  <si>
+    <t>{SPL_D2}</t>
+  </si>
+  <si>
+    <t>{SPL_D3}</t>
+  </si>
+  <si>
+    <t>{SPL_D4}</t>
+  </si>
+  <si>
+    <t>{BORG_D1}</t>
+  </si>
+  <si>
+    <t>{BORG_D2}</t>
+  </si>
+  <si>
+    <t>{BORG_D3}</t>
+  </si>
+  <si>
+    <t>{BORG_D4}</t>
+  </si>
+  <si>
+    <t>{SPL_PDV1}</t>
+  </si>
+  <si>
+    <t>{SPL_PDV2}</t>
+  </si>
+  <si>
+    <t>{SPL_PDV3}</t>
+  </si>
+  <si>
+    <t>{SPL_PDV4}</t>
+  </si>
+  <si>
+    <t>{BORG_PDV1}</t>
+  </si>
+  <si>
+    <t>{BORG_PDV2}</t>
+  </si>
+  <si>
+    <t>{BORG_PDV3}</t>
+  </si>
+  <si>
+    <t>{BORG_PDV4}</t>
+  </si>
+  <si>
+    <t>{SPL_D_PDFO1}</t>
+  </si>
+  <si>
+    <t>{SPL_D_PDFO2}</t>
+  </si>
+  <si>
+    <t>{SPL_D_PDFO3}</t>
+  </si>
+  <si>
+    <t>{SPL_D_PDFO4}</t>
+  </si>
+  <si>
+    <t>{BORG_D_PDFO1}</t>
+  </si>
+  <si>
+    <t>{BORG_D_PDFO2}</t>
+  </si>
+  <si>
+    <t>{BORG_D_PDFO3}</t>
+  </si>
+  <si>
+    <t>{BORG_D_PDFO4}</t>
+  </si>
+  <si>
+    <t>{SPL_D_PRIB1}</t>
+  </si>
+  <si>
+    <t>{SPL_D_PRIB2}</t>
+  </si>
+  <si>
+    <t>{SPL_D_PRIB3}</t>
+  </si>
+  <si>
+    <t>{SPL_D_PRIB4}</t>
+  </si>
+  <si>
+    <t>{BORG_D_PRIB1}</t>
+  </si>
+  <si>
+    <t>{BORG_D_PRIB2}</t>
+  </si>
+  <si>
+    <t>{BORG_D_PRIB3}</t>
+  </si>
+  <si>
+    <t>{BORG_D_PRIB4}</t>
+  </si>
+  <si>
+    <t>{SPL_VIJSKO1}</t>
+  </si>
+  <si>
+    <t>{SPL_VIJSKO2}</t>
+  </si>
+  <si>
+    <t>{SPL_VIJSKO3}</t>
+  </si>
+  <si>
+    <t>{SPL_VIJSKO4}</t>
+  </si>
+  <si>
+    <t>{BORG_VIJSKO1}</t>
+  </si>
+  <si>
+    <t>{BORG_VIJSKO2}</t>
+  </si>
+  <si>
+    <t>{BORG_VIJSKO3}</t>
+  </si>
+  <si>
+    <t>{BORG_VIJSKO4}</t>
+  </si>
+  <si>
+    <t>{SPL_M1}</t>
+  </si>
+  <si>
+    <t>{SPL_M2}</t>
+  </si>
+  <si>
+    <t>{SPL_M3}</t>
+  </si>
+  <si>
+    <t>{SPL_M4}</t>
+  </si>
+  <si>
+    <t>{BORG_M1}</t>
+  </si>
+  <si>
+    <t>{BORG_M2}</t>
+  </si>
+  <si>
+    <t>{BORG_M3}</t>
+  </si>
+  <si>
+    <t>{BORG_M4}</t>
+  </si>
+  <si>
+    <t>{SPL_M_PDFO1}</t>
+  </si>
+  <si>
+    <t>{SPL_M_PDFO2}</t>
+  </si>
+  <si>
+    <t>{SPL_M_PDFO3}</t>
+  </si>
+  <si>
+    <t>{SPL_M_PDFO4}</t>
+  </si>
+  <si>
+    <t>{BORG_M_PDFO1}</t>
+  </si>
+  <si>
+    <t>{BORG_M_PDFO2}</t>
+  </si>
+  <si>
+    <t>{BORG_M_PDFO3}</t>
+  </si>
+  <si>
+    <t>{BORG_M_PDFO4}</t>
+  </si>
+  <si>
+    <t>{SPL_M_PRIB1}</t>
+  </si>
+  <si>
+    <t>{SPL_M_PRIB2}</t>
+  </si>
+  <si>
+    <t>{SPL_M_PRIB3}</t>
+  </si>
+  <si>
+    <t>{SPL_M_PRIB4}</t>
+  </si>
+  <si>
+    <t>{BORG_M_PRIB1}</t>
+  </si>
+  <si>
+    <t>{BORG_M_PRIB2}</t>
+  </si>
+  <si>
+    <t>{BORG_M_PRIB3}</t>
+  </si>
+  <si>
+    <t>{BORG_M_PRIB4}</t>
+  </si>
+  <si>
+    <t>{SPL_ESV1}</t>
+  </si>
+  <si>
+    <t>{SPL_ESV2}</t>
+  </si>
+  <si>
+    <t>{SPL_ESV3}</t>
+  </si>
+  <si>
+    <t>{SPL_ESV4}</t>
+  </si>
+  <si>
+    <t>{BORG_ESV1}</t>
+  </si>
+  <si>
+    <t>{BORG_ESV2}</t>
+  </si>
+  <si>
+    <t>{BORG_ESV3}</t>
+  </si>
+  <si>
+    <t>{BORG_ESV4}</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1272,6 +1555,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1286,6 +1573,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,9 +1896,7 @@
   </sheetPr>
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1646,15 +1937,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1663,15 +1954,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1696,14 +1987,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1715,14 +2006,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1734,29 +2025,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1765,15 +2056,15 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="15" t="s">
@@ -1863,7 +2154,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>119</v>
       </c>
@@ -2267,6 +2558,369 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Реєстраційні дані" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="426">
   <si>
     <t>ДПІ</t>
   </si>
@@ -1287,6 +1287,39 @@
   </si>
   <si>
     <t>{BORG_ESV4}</t>
+  </si>
+  <si>
+    <t>[#OBJ.NAME_OBJ#]</t>
+  </si>
+  <si>
+    <t>[#OBJ.NAME#]</t>
+  </si>
+  <si>
+    <t>[#OBJ.D_ACC_START#]</t>
+  </si>
+  <si>
+    <t>[#OBJ.ADR_NS#]</t>
+  </si>
+  <si>
+    <t>Об’єкти платника</t>
+  </si>
+  <si>
+    <t>[#RRO.BLANK#]</t>
+  </si>
+  <si>
+    <t>Назва 
+об’єкту</t>
+  </si>
+  <si>
+    <t>Дата 
+реєстрації</t>
+  </si>
+  <si>
+    <t>Тип 
+об’єкту</t>
+  </si>
+  <si>
+    <t>Квартал</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1330,7 @@
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,6 +1387,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1375,7 +1416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1411,11 +1452,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1558,6 +1625,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1894,9 +1976,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1937,15 +2019,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1954,15 +2036,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1987,14 +2069,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -2006,14 +2088,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -2025,29 +2107,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2056,15 +2138,15 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="15" t="s">
@@ -2198,6 +2280,45 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>145</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +2686,7 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2579,22 +2700,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="58" t="s">
         <v>332</v>
       </c>
@@ -4002,7 +4123,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4011,22 +4132,24 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E2" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E3" s="54"/>
     </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
@@ -4040,7 +4163,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
         <v>263</v>
       </c>
@@ -4052,6 +4175,32 @@
       </c>
       <c r="E5" s="53" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="431">
   <si>
     <t>ДПІ</t>
   </si>
@@ -828,18 +828,6 @@
     <t>[#K_ST_PRAZ#]</t>
   </si>
   <si>
-    <t>[#YEAR#]</t>
-  </si>
-  <si>
-    <t>[#OZN_DOX#]</t>
-  </si>
-  <si>
-    <t>[#CNT#]</t>
-  </si>
-  <si>
-    <t>[#DOX#]</t>
-  </si>
-  <si>
     <t>Нараховний
 дохід, грн</t>
   </si>
@@ -1320,6 +1308,33 @@
   </si>
   <si>
     <t>Квартал</t>
+  </si>
+  <si>
+    <t>[#T1.YEAR#]</t>
+  </si>
+  <si>
+    <t>[#T1.OZN_DOX#]</t>
+  </si>
+  <si>
+    <t>[#T1.CNT#]</t>
+  </si>
+  <si>
+    <t>[#T1.DOX#]</t>
+  </si>
+  <si>
+    <t>[#T2.OZN_DOX#]</t>
+  </si>
+  <si>
+    <t>[#T2.ZY#]</t>
+  </si>
+  <si>
+    <t>[#T2.NARAX#]</t>
+  </si>
+  <si>
+    <t>[#T2.TIN_DRFO#]</t>
+  </si>
+  <si>
+    <t>[#T2.ZKV#]</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1460,9 +1475,20 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1473,16 +1499,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,19 +1650,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2019,15 +2046,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -2036,15 +2063,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -2069,14 +2096,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -2088,14 +2115,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -2107,29 +2134,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2138,15 +2165,15 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="15" t="s">
@@ -2282,26 +2309,26 @@
         <v>145</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E33" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -2309,16 +2336,16 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2389,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L1" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2370,69 +2397,69 @@
         <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>216</v>
       </c>
       <c r="G3" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="L3" s="44" t="s">
         <v>285</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2450,7 +2477,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L5" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2458,34 +2485,34 @@
         <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2493,39 +2520,39 @@
         <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" s="44" t="s">
+      <c r="K7" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="L7" s="44" t="s">
         <v>292</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2533,74 +2560,74 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="J10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="J11" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G11" s="44" t="s">
+      <c r="K11" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="L11" s="44" t="s">
         <v>303</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L13" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2608,69 +2635,69 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="G15" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H15" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="I15" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="J15" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="K15" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="L15" s="44" t="s">
         <v>315</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2696,310 +2723,310 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70" t="s">
+      <c r="D3" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70" t="s">
+      <c r="E3" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>334</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>335</v>
-      </c>
       <c r="F3" s="58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B4" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="G4" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="H4" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="I4" s="53" t="s">
         <v>339</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="G5" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="H5" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="I5" s="53" t="s">
         <v>347</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B6" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="G6" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="H6" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="I6" s="53" t="s">
         <v>355</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B7" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="G7" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="H7" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="I7" s="53" t="s">
         <v>363</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>366</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B8" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="G8" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="H8" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>371</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>373</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B9" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="G9" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="H9" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="I9" s="53" t="s">
         <v>379</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>380</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>382</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B10" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="G10" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="H10" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="I10" s="53" t="s">
         <v>387</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="G11" s="53" t="s">
         <v>393</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="H11" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="I11" s="53" t="s">
         <v>395</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>396</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>397</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="G12" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="H12" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="I12" s="53" t="s">
         <v>403</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>404</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>406</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3007,28 +3034,28 @@
         <v>61</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="G13" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="H13" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="I13" s="53" t="s">
         <v>411</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>412</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>413</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +4150,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4138,12 +4165,12 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E2" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -4157,50 +4184,76 @@
         <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>266</v>
+        <v>425</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="62" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD074A3-2673-4378-9922-BFF8AF4A4462}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Реєстраційні дані" sheetId="5" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="439">
   <si>
     <t>ДПІ</t>
   </si>
@@ -1335,12 +1336,36 @@
   </si>
   <si>
     <t>[#T2.ZKV#]</t>
+  </si>
+  <si>
+    <t>Попередня ДПІ</t>
+  </si>
+  <si>
+    <t>Нова ДПІ</t>
+  </si>
+  <si>
+    <t>{r21taxpay.d_old_dpi}</t>
+  </si>
+  <si>
+    <t>{r21taxpay.d_new_dpi}</t>
+  </si>
+  <si>
+    <t>{r21taxpay.old_dpi}</t>
+  </si>
+  <si>
+    <t>{r21taxpay.new_dpi}</t>
+  </si>
+  <si>
+    <t>{r21taxpay.old_dpi_name}</t>
+  </si>
+  <si>
+    <t>{r21taxpay.new_dpi_name}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -1506,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1689,9 +1714,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1716,7 +1747,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1754,7 +1785,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1789,6 +1820,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1824,9 +1872,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1999,11 +2064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2176,175 +2241,203 @@
       <c r="J15" s="66"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="15" t="s">
+      <c r="B17" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="46"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="46"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C26" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D26" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E26" s="46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D34" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E34" s="55" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="15" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>415</v>
       </c>
     </row>
@@ -2364,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2707,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3070,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3373,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3528,7 +3621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3678,7 +3771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3931,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4048,7 +4141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4100,7 +4193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4146,7 +4239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD074A3-2673-4378-9922-BFF8AF4A4462}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC29B2B-E55E-4C28-B37E-B6254A8C08F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,14 @@
     <sheet name="1-ДФ" sheetId="17" r:id="rId9"/>
     <sheet name="Площа" sheetId="18" r:id="rId10"/>
     <sheet name="Сплата" sheetId="19" r:id="rId11"/>
+    <sheet name="Єдиний" sheetId="20" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="451">
   <si>
     <t>ДПІ</t>
   </si>
@@ -1360,6 +1361,43 @@
   </si>
   <si>
     <t>{r21taxpay.new_dpi_name}</t>
+  </si>
+  <si>
+    <t>Єдиний (фіз.)</t>
+  </si>
+  <si>
+    <t>[#HZ#]</t>
+  </si>
+  <si>
+    <t>[#HZU#]</t>
+  </si>
+  <si>
+    <t>[#KIL#]</t>
+  </si>
+  <si>
+    <t>[#P008_GR3#]</t>
+  </si>
+  <si>
+    <t>[#P012_GR3#]</t>
+  </si>
+  <si>
+    <t>Звітний 
+рік</t>
+  </si>
+  <si>
+    <t>Звітна</t>
+  </si>
+  <si>
+    <t>Уточнююча</t>
+  </si>
+  <si>
+    <t>Кількість найманих працівників</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сума доходу</t>
+  </si>
+  <si>
+    <t>Нараховано</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,6 +1731,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1713,12 +1760,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2111,15 +2152,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -2128,15 +2169,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -2161,14 +2202,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -2180,14 +2221,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -2199,29 +2240,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2230,41 +2271,41 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="65" t="s">
         <v>431</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="66" t="s">
         <v>433</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="66" t="s">
         <v>435</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="66" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="65" t="s">
         <v>432</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="66" t="s">
         <v>434</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="66" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2820,22 +2861,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="58" t="s">
         <v>328</v>
       </c>
@@ -3159,6 +3200,79 @@
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF2BDE2-9121-4BBD-BDFF-985699754A35}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4144,7 +4258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4196,7 +4312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC29B2B-E55E-4C28-B37E-B6254A8C08F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF478E-7248-4D4B-9A62-17BE8D367C9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,14 @@
     <sheet name="Площа" sheetId="18" r:id="rId10"/>
     <sheet name="Сплата" sheetId="19" r:id="rId11"/>
     <sheet name="Єдиний" sheetId="20" r:id="rId12"/>
+    <sheet name="Контрагенти (розріз)" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="467">
   <si>
     <t>ДПІ</t>
   </si>
@@ -1398,6 +1399,60 @@
   </si>
   <si>
     <t>Нараховано</t>
+  </si>
+  <si>
+    <t>[#CP_TIN#]</t>
+  </si>
+  <si>
+    <t>[#NAME#]</t>
+  </si>
+  <si>
+    <t>[#KOD_TOVARU#]</t>
+  </si>
+  <si>
+    <t>Контрагенти - зобов’язання (розріз)</t>
+  </si>
+  <si>
+    <t>[#MIND#]</t>
+  </si>
+  <si>
+    <t>[#MAXD#]</t>
+  </si>
+  <si>
+    <t>[#OBS#]</t>
+  </si>
+  <si>
+    <t>[#NOM#]</t>
+  </si>
+  <si>
+    <t>[#STI#]</t>
+  </si>
+  <si>
+    <t>Код 
+контрагента</t>
+  </si>
+  <si>
+    <t>Назва контрагента</t>
+  </si>
+  <si>
+    <t>Код
+товару
+(послуги)</t>
+  </si>
+  <si>
+    <t>Початкова 
+дата</t>
+  </si>
+  <si>
+    <t>Кінцева
+дата</t>
+  </si>
+  <si>
+    <t>Номенклатура</t>
+  </si>
+  <si>
+    <t>Обсяг
+тис. грн.</t>
   </si>
 </sst>
 </file>
@@ -3276,6 +3331,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB2EB2E-A98F-455A-A7DE-DE33B73830FD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF478E-7248-4D4B-9A62-17BE8D367C9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95B74D9-04A2-4B85-BEE0-40E7AE1B2CCE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Реєстраційні дані" sheetId="5" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="Площа" sheetId="18" r:id="rId10"/>
     <sheet name="Сплата" sheetId="19" r:id="rId11"/>
     <sheet name="Єдиний" sheetId="20" r:id="rId12"/>
-    <sheet name="Контрагенти (розріз)" sheetId="21" r:id="rId13"/>
+    <sheet name="Контрагенти - зобов’язання" sheetId="21" r:id="rId13"/>
+    <sheet name="Контрагенти - кредит" sheetId="22" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="468">
   <si>
     <t>ДПІ</t>
   </si>
@@ -1453,6 +1454,9 @@
   <si>
     <t>Обсяг
 тис. грн.</t>
+  </si>
+  <si>
+    <t>Контрагенти - кредит (розріз)</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,6 +1820,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2166,7 +2171,7 @@
   </sheetPr>
   <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3338,6 +3343,85 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109899BC-132C-4A6A-8437-6A6B51A9EF6C}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,7 +3436,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3386,12 +3470,12 @@
         <v>459</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>451</v>
+        <v>250</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="75" t="s">
         <v>453</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3408,8 +3492,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95B74D9-04A2-4B85-BEE0-40E7AE1B2CCE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE657D86-08CA-4412-8B53-D1CE5995A164}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Реєстраційні дані" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="477">
   <si>
     <t>ДПІ</t>
   </si>
@@ -1457,6 +1457,33 @@
   </si>
   <si>
     <t>Контрагенти - кредит (розріз)</t>
+  </si>
+  <si>
+    <t>[#SFP.D_ZAP#]</t>
+  </si>
+  <si>
+    <t>[#SFP.OZN_F#]</t>
+  </si>
+  <si>
+    <t>[#SFP.OZN_F_NAME#]</t>
+  </si>
+  <si>
+    <t>Дата запису</t>
+  </si>
+  <si>
+    <t>Озн. фікт.</t>
+  </si>
+  <si>
+    <t>Ознака фіктивності</t>
+  </si>
+  <si>
+    <t>СФП</t>
+  </si>
+  <si>
+    <t>[#T1.SFP#]</t>
+  </si>
+  <si>
+    <t>[#T2.SFP#]</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1799,6 +1826,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1820,7 +1854,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2169,9 +2202,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2212,15 +2245,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -2229,15 +2262,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -2262,14 +2295,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -2281,14 +2314,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -2300,29 +2333,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2331,15 +2364,15 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
@@ -2369,176 +2402,206 @@
         <v>438</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="15" t="s">
+      <c r="B20" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>472</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" s="66"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="E21" s="66"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="46"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="46"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C29" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D29" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E29" s="46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D37" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E37" s="55" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="15" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>415</v>
       </c>
     </row>
@@ -2921,22 +2984,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="58" t="s">
         <v>328</v>
       </c>
@@ -3343,7 +3406,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3396,7 +3459,7 @@
       <c r="C3" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="68" t="s">
         <v>453</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3475,7 +3538,7 @@
       <c r="C3" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="68" t="s">
         <v>453</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3805,7 +3868,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3817,14 +3880,15 @@
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="64.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +3913,11 @@
       <c r="H2" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>183</v>
       </c>
@@ -3875,8 +3942,11 @@
       <c r="H3" s="29" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3884,12 +3954,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H5" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
@@ -3914,8 +3984,11 @@
       <c r="H6" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>
@@ -3940,8 +4013,11 @@
       <c r="H7" s="29" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
         <v>79</v>
       </c>
@@ -3951,7 +4027,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE657D86-08CA-4412-8B53-D1CE5995A164}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A6924-B40A-41EC-97B9-4D3D1E5141DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,12 +840,6 @@
 фіз. осіб</t>
   </si>
   <si>
-    <t>1-ДФ, ознаки доходу (106,109,157)</t>
-  </si>
-  <si>
-    <t>Роки 2016-2018</t>
-  </si>
-  <si>
     <t>Код ДПІ</t>
   </si>
   <si>
@@ -1484,6 +1478,12 @@
   </si>
   <si>
     <t>[#T2.SFP#]</t>
+  </si>
+  <si>
+    <t>1-ДФ, ознаки доходу (106,107,109,157)</t>
+  </si>
+  <si>
+    <t>Роки 2016-2020</t>
   </si>
 </sst>
 </file>
@@ -2376,30 +2376,30 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="D17" s="66" t="s">
         <v>433</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="E17" s="66" t="s">
         <v>435</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>432</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="D18" s="66" t="s">
         <v>434</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="E18" s="66" t="s">
         <v>436</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,25 +2410,25 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="D20" s="70" t="s">
         <v>471</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>472</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>473</v>
       </c>
       <c r="E20" s="66"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21" s="49" t="s">
         <v>468</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>470</v>
       </c>
       <c r="E21" s="66"/>
     </row>
@@ -2566,26 +2566,26 @@
         <v>145</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E39" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
@@ -2593,16 +2593,16 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2646,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L1" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2654,69 +2654,69 @@
         <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>216</v>
       </c>
       <c r="G3" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="J3" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="K3" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="L3" s="44" t="s">
         <v>283</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L5" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2742,34 +2742,34 @@
         <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2777,39 +2777,39 @@
         <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" s="44" t="s">
+      <c r="I7" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="J7" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="K7" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="L7" s="44" t="s">
         <v>290</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L9" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2817,74 +2817,74 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="H11" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="44" t="s">
+      <c r="I11" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="J11" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="K11" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="L11" s="44" t="s">
         <v>301</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L13" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -2892,69 +2892,69 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="H15" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="I15" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="J15" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="K15" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="L15" s="44" t="s">
         <v>313</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2980,19 +2980,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="77" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
       <c r="F2" s="77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="77"/>
       <c r="H2" s="77"/>
@@ -3001,289 +3001,289 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="76"/>
       <c r="B3" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="E3" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>331</v>
-      </c>
       <c r="F3" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="I3" s="58" t="s">
         <v>329</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B4" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="E4" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="F4" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="G4" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="H4" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="I4" s="53" t="s">
         <v>337</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="E5" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="F5" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="G5" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="H5" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="I5" s="53" t="s">
         <v>345</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="E6" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="F6" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="G6" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="H6" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="I6" s="53" t="s">
         <v>353</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B7" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="E7" s="53" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="F7" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="G7" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="H7" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="I7" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B8" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="E8" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="F8" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="G8" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="H8" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>369</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B9" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="E9" s="53" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="F9" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="G9" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="H9" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="I9" s="53" t="s">
         <v>377</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B10" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="E10" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="F10" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="G10" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="H10" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="I10" s="53" t="s">
         <v>385</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="E11" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="F11" s="53" t="s">
         <v>390</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="G11" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="H11" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="I11" s="53" t="s">
         <v>393</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>394</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="E12" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="F12" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="G12" s="53" t="s">
         <v>399</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="H12" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="I12" s="53" t="s">
         <v>401</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3291,28 +3291,28 @@
         <v>61</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="D13" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="E13" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="F13" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="G13" s="53" t="s">
         <v>407</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="H13" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="I13" s="53" t="s">
         <v>409</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3344,30 +3344,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="67" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="F2" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="G2" s="67" t="s">
         <v>448</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>449</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3378,19 +3378,19 @@
         <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -3420,7 +3420,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3428,51 +3428,51 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="E2" s="67" t="s">
         <v>461</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="F2" s="67" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="G2" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="H2" s="67" t="s">
         <v>463</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>464</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>466</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="68" t="s">
+      <c r="E3" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="29" t="s">
         <v>456</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3499,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3507,51 +3507,51 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="E2" s="67" t="s">
         <v>461</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="F2" s="67" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="G2" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="H2" s="67" t="s">
         <v>463</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>464</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>466</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D3" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="29" t="s">
         <v>456</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -3914,7 +3914,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>188</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3985,7 +3985,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
         <v>195</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,9 +4555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4609,9 +4607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4673,12 +4669,12 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
-        <v>265</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E2" s="6" t="s">
-        <v>266</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -4700,16 +4696,16 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="E5" s="53" t="s">
         <v>423</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>424</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>425</v>
       </c>
       <c r="F5" t="s">
         <v>150</v>
@@ -4729,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D8" s="62" t="s">
         <v>131</v>
@@ -4746,19 +4742,19 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" s="64" t="s">
         <v>427</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>429</v>
       </c>
       <c r="G9" s="53" t="s">
         <v>158</v>

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A6924-B40A-41EC-97B9-4D3D1E5141DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29839EE5-4F95-4950-A6DF-B98E6B0F6101}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,14 @@
     <sheet name="Єдиний" sheetId="20" r:id="rId12"/>
     <sheet name="Контрагенти - зобов’язання" sheetId="21" r:id="rId13"/>
     <sheet name="Контрагенти - кредит" sheetId="22" r:id="rId14"/>
+    <sheet name="Ліцензії" sheetId="23" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="546">
   <si>
     <t>ДПІ</t>
   </si>
@@ -1484,6 +1485,213 @@
   </si>
   <si>
     <t>Роки 2016-2020</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Вид діяльності</t>
+  </si>
+  <si>
+    <t>Реєстраційний № ліцензії</t>
+  </si>
+  <si>
+    <t>Термін дії ліцензії з</t>
+  </si>
+  <si>
+    <t>Термін дії ліцензії до</t>
+  </si>
+  <si>
+    <t>Ідентифікаційний код</t>
+  </si>
+  <si>
+    <t>Місцезнаходження (місце проживання заявника)</t>
+  </si>
+  <si>
+    <t>Щорічний платіж з</t>
+  </si>
+  <si>
+    <t>Щорічний платіж до</t>
+  </si>
+  <si>
+    <t>Адреса місця торгівлі</t>
+  </si>
+  <si>
+    <t>Орган ДПС за основним місцем обліку</t>
+  </si>
+  <si>
+    <t>Стан ліцензії</t>
+  </si>
+  <si>
+    <t>№ Розпорядження</t>
+  </si>
+  <si>
+    <t>Дата Розпорядження</t>
+  </si>
+  <si>
+    <t>Код органу ДПС за місцем торгівлі</t>
+  </si>
+  <si>
+    <t>[#T1.VD#]</t>
+  </si>
+  <si>
+    <t>[#T1.N_LIC#]</t>
+  </si>
+  <si>
+    <t>[#T1.D_BEGIN#]</t>
+  </si>
+  <si>
+    <t>[#T1.D_END#]</t>
+  </si>
+  <si>
+    <t>[#T1.ADDRESS#]</t>
+  </si>
+  <si>
+    <t>[#T1.PL_D_BEGIN#]</t>
+  </si>
+  <si>
+    <t>[#T1.PL_D_END#]</t>
+  </si>
+  <si>
+    <t>[#T1.TORG_ADDRESS#]</t>
+  </si>
+  <si>
+    <t>[#T1.RRO_QTY#]</t>
+  </si>
+  <si>
+    <t>[#T1.DPS_NAME#]</t>
+  </si>
+  <si>
+    <t>[#T1.STAN#]</t>
+  </si>
+  <si>
+    <t>[#T1.N_ROZP#]</t>
+  </si>
+  <si>
+    <t>[#T1.D_ROZP#]</t>
+  </si>
+  <si>
+    <t>Адреса місця роздрібної торгівлі пальним</t>
+  </si>
+  <si>
+    <t>Код за КОАТУУ (код населеного пункту за місцем торгівлі)</t>
+  </si>
+  <si>
+    <t>Код органу ліцензування</t>
+  </si>
+  <si>
+    <t>[#T2.VD#]</t>
+  </si>
+  <si>
+    <t>[#T2.N_LIC#]</t>
+  </si>
+  <si>
+    <t>[#T2.D_BEGIN#]</t>
+  </si>
+  <si>
+    <t>[#T2.D_END#]</t>
+  </si>
+  <si>
+    <t>[#T2.ADDRESS#]</t>
+  </si>
+  <si>
+    <t>[#T2.DPS#]</t>
+  </si>
+  <si>
+    <t>[#T2.PL_D_BEGIN#]</t>
+  </si>
+  <si>
+    <t>[#T2.PL_D_END#]</t>
+  </si>
+  <si>
+    <t>[#T2.TORG_ADDRESS#]</t>
+  </si>
+  <si>
+    <t>[#T2.C_DISTR_TORG#]</t>
+  </si>
+  <si>
+    <t>[#T2.KOATU#]</t>
+  </si>
+  <si>
+    <t>[#T2.QTY#]</t>
+  </si>
+  <si>
+    <t>[#T2.STAN#]</t>
+  </si>
+  <si>
+    <t>[#T2.N_ROZP#]</t>
+  </si>
+  <si>
+    <t>[#T2.D_ROZP#]</t>
+  </si>
+  <si>
+    <t>Адреса місця зберігання пального</t>
+  </si>
+  <si>
+    <t>Загальна місткість ємностей  (літри)</t>
+  </si>
+  <si>
+    <t>[#T3.N#]</t>
+  </si>
+  <si>
+    <t>[#T3.N_LIC#]</t>
+  </si>
+  <si>
+    <t>[#T3.D_BEGIN#]</t>
+  </si>
+  <si>
+    <t>[#T3.D_END#]</t>
+  </si>
+  <si>
+    <t>[#T3.VD#]</t>
+  </si>
+  <si>
+    <t>[#T3.ADDRESS#]</t>
+  </si>
+  <si>
+    <t>[#T3.DPS#]</t>
+  </si>
+  <si>
+    <t>[#T3.PL_D_BEGIN#]</t>
+  </si>
+  <si>
+    <t>[#T3.PL_D_END#]</t>
+  </si>
+  <si>
+    <t>[#T3.ZBER_ADDRESS#]</t>
+  </si>
+  <si>
+    <t>[#T3.LITR#]</t>
+  </si>
+  <si>
+    <t>[#T3.DPS_TORG#]</t>
+  </si>
+  <si>
+    <t>[#T3.KOATU#]</t>
+  </si>
+  <si>
+    <t>[#T3.STAN#]</t>
+  </si>
+  <si>
+    <t>[#T3.N_ROZP#]</t>
+  </si>
+  <si>
+    <t>[#T3.D_ROZP#]</t>
+  </si>
+  <si>
+    <t>Ліцензії на алкоголь і тююнові вироби</t>
+  </si>
+  <si>
+    <t>Роздрібна торгівля пальним</t>
+  </si>
+  <si>
+    <t>Зберігання пального</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість РРО, які знаходяться у місці торгівлі (шт.) </t>
+  </si>
+  <si>
+    <t>Перелік РРО/КОРО, які знаходяться умісці торгівлі</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,6 +2041,16 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2245,15 +2463,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -2262,15 +2480,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -2295,14 +2513,14 @@
       <c r="D11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -2314,14 +2532,14 @@
       <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -2333,29 +2551,29 @@
       <c r="D13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2364,15 +2582,15 @@
       <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
@@ -2984,22 +3202,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="81" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81" t="s">
         <v>325</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="58" t="s">
         <v>326</v>
       </c>
@@ -3557,6 +3775,404 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6D6EA7-9E39-40F5-9703-E367FF39E702}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:U11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="70.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="70.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="70.7109375" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R1" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>482</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="L2" s="72" t="s">
+        <v>485</v>
+      </c>
+      <c r="M2" s="72" t="s">
+        <v>486</v>
+      </c>
+      <c r="N2" s="72" t="s">
+        <v>491</v>
+      </c>
+      <c r="O2" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q2" s="72" t="s">
+        <v>489</v>
+      </c>
+      <c r="R2" s="72" t="s">
+        <v>490</v>
+      </c>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="S3" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T5" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>482</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>487</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>485</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>505</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>491</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>489</v>
+      </c>
+      <c r="R6" s="72" t="s">
+        <v>490</v>
+      </c>
+      <c r="S6" s="72" t="s">
+        <v>507</v>
+      </c>
+      <c r="T6" s="72" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T9" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>482</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>487</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>485</v>
+      </c>
+      <c r="M10" s="72" t="s">
+        <v>523</v>
+      </c>
+      <c r="N10" s="72" t="s">
+        <v>491</v>
+      </c>
+      <c r="O10" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="P10" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q10" s="72" t="s">
+        <v>489</v>
+      </c>
+      <c r="R10" s="72" t="s">
+        <v>490</v>
+      </c>
+      <c r="S10" s="72" t="s">
+        <v>507</v>
+      </c>
+      <c r="T10" s="72" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="1000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xls/passport/template.xlsx
+++ b/xls/passport/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29839EE5-4F95-4950-A6DF-B98E6B0F6101}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CA9092-FF2B-48D6-97BE-E1B8BBA6276D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
